--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DCE525-5897-4613-A9AD-B181D8348D0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD66318B-E413-4CA0-A42C-696B5A2F5D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,10 +284,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>视觉软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AI算法及部署工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,10 +309,6 @@
   </si>
   <si>
     <t>蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -387,12 +379,40 @@
     <t>广发银行信用卡中心</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>银星集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像算法工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0916</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,15 +477,8 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +488,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,9 +522,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -519,7 +535,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -803,23 +822,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC47"/>
+  <dimension ref="A1:XFC50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.125" style="6" customWidth="1"/>
-    <col min="7" max="9" width="9" style="6"/>
-    <col min="10" max="16383" width="0" style="6" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="5.125" style="6" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.125" style="5" customWidth="1"/>
+    <col min="7" max="9" width="9" style="5"/>
+    <col min="10" max="16383" width="0" style="5" hidden="1" customWidth="1"/>
+    <col min="16384" max="16384" width="5.125" style="5" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -869,380 +888,415 @@
     <row r="4" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>19</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
+      <c r="B10" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>31</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>45</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>51</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>70</v>
+      <c r="B25" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>72</v>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>74</v>
+      <c r="B27" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>80</v>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>81</v>
+      <c r="B29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
-    <hyperlink ref="B13" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
-    <hyperlink ref="B5" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
-    <hyperlink ref="B11" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
-    <hyperlink ref="B14" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
-    <hyperlink ref="B15" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
-    <hyperlink ref="B16" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
-    <hyperlink ref="B17" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
-    <hyperlink ref="B19" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
-    <hyperlink ref="B20" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
-    <hyperlink ref="B21" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
-    <hyperlink ref="B22" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
-    <hyperlink ref="B23" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
-    <hyperlink ref="B24" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
-    <hyperlink ref="B25" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
-    <hyperlink ref="C25" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
-    <hyperlink ref="B26" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
-    <hyperlink ref="B27" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
-    <hyperlink ref="B28" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
-    <hyperlink ref="B29" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
+    <hyperlink ref="B15" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
+    <hyperlink ref="B8" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
+    <hyperlink ref="B14" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
+    <hyperlink ref="B17" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
+    <hyperlink ref="B19" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
+    <hyperlink ref="B20" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
+    <hyperlink ref="B21" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
+    <hyperlink ref="B22" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
+    <hyperlink ref="B23" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
+    <hyperlink ref="B25" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
+    <hyperlink ref="B26" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
+    <hyperlink ref="B27" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
+    <hyperlink ref="B28" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
+    <hyperlink ref="C28" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
+    <hyperlink ref="B29" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
+    <hyperlink ref="B30" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
+    <hyperlink ref="B31" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
+    <hyperlink ref="B32" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD66318B-E413-4CA0-A42C-696B5A2F5D06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157ECE25-A234-45E8-91F1-C72464915061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="科创板" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,194 +20,246 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{DC8E9C9E-C81F-483D-AAC9-6CA2E3BA5BE7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">ok_0413:面试站点更新
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{85F218CA-B0A3-4C13-AEC1-BA0B7B5E7CB0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+简历编号为：225286</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
   <si>
     <t>投递时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>公司名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>顺丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0905</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>华为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0906</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>投递岗位1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>岗位2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京博乐科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>服务端开发工程师（python）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0907</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>九号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>视觉算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AI软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计算机视觉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0912</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>开立医疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0822</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>算法工程师（AI）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>游戏客户端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>游戏测试工程师-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>信息科技岗（AI算法）(009173)---北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>信息科技岗（测试开发）(009168)---成都</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>广州诗悦网络科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>锐明科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>软件测试工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>视觉算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>趣玩科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中信银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>测试工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>玄武云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AI算法工程师——广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0828</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>图像识别算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>机器学习算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>北京农商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>总行附属机构青鸾科技岗位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>搜狐畅游</t>
   </si>
   <si>
     <t>游戏开发工程师C++</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0913</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>康冠科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,131 +275,175 @@
       </rPr>
       <t>开发工程师、软件测试工程师</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>算法工程师(AI图像——深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英雄游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>游戏测试工程师-北京/杭州-2023Campus-秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0913</t>
   </si>
   <si>
     <t>笔试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>面试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>渤海银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>竞技世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>计算机视觉算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>游戏后端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>算法工程师-天津</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>黑芝麻智能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AI算法及部署工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中国平安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>科技管培---测试开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT管理岗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中望软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>python开发测试工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>蚂蚁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>上海曼伦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IT技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>飞鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>客户端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>新三华</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>小米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>管培生（机器学习与算法方向）--广州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行信用卡中心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银星集团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0915</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0916</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉软件工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0829</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总行信息科技部培训见习生-软件测试岗（天津）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分行培训见习生-济南分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -356,7 +453,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
         <family val="2"/>
@@ -365,7 +462,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
         <family val="2"/>
@@ -373,52 +470,292 @@
       </rPr>
       <t>视觉算法工程师</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行信用卡中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银星集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0828</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国电信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉算法工程师</t>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922-19:15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创维数字股份有限公司</t>
+  </si>
+  <si>
+    <t>0903</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技岗-总行/山东省分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇川技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像识别算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>博世中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工智能工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0904</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富途</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0918</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中航国际</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能制造岗（深南电路）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓斯达</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉应用工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibee</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银联</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统运维与测试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递岗位二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天能股份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾为电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>海天瑞声</t>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中控技术</t>
+  </si>
+  <si>
+    <t>智能算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>容知日新</t>
+  </si>
+  <si>
+    <t>AI算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科微电子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>图像算法工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0915</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0916</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深信服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥普特科技</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉菱电控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先临三维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度学习算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器视觉算法工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历已发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-中银基金管理有限公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0909</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0919</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921~13：30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉软件工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省公司、淄川分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -449,15 +786,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
@@ -465,20 +793,78 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,36 +901,83 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,27 +1260,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:XFC50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.125" style="5" customWidth="1"/>
-    <col min="7" max="9" width="9" style="5"/>
-    <col min="10" max="16383" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="16384" max="16384" width="5.125" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.25" style="4" customWidth="1"/>
+    <col min="4" max="4" width="45.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
+    <col min="6" max="7" width="15.125" style="4" customWidth="1"/>
+    <col min="8" max="10" width="9" style="4" customWidth="1"/>
+    <col min="11" max="11" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,13 +1295,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -869,23 +1312,21 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>75</v>
@@ -893,50 +1334,60 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -945,12 +1396,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -960,345 +1412,865 @@
         <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="16" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="F22" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="F26" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>72</v>
+      <c r="B30" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>74</v>
+      <c r="B31" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>79</v>
+      <c r="B32" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:1" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B33" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
+    <hyperlink ref="B19" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
     <hyperlink ref="B8" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
-    <hyperlink ref="B14" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
-    <hyperlink ref="B17" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
-    <hyperlink ref="B18" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
+    <hyperlink ref="B18" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
+    <hyperlink ref="B22" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
+    <hyperlink ref="B23" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
     <hyperlink ref="B9" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
-    <hyperlink ref="B19" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
-    <hyperlink ref="B20" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
-    <hyperlink ref="B21" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
-    <hyperlink ref="B22" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
-    <hyperlink ref="B23" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
-    <hyperlink ref="B25" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
-    <hyperlink ref="B26" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
-    <hyperlink ref="B27" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
-    <hyperlink ref="B28" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
-    <hyperlink ref="C28" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
-    <hyperlink ref="B29" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
-    <hyperlink ref="B30" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
-    <hyperlink ref="B31" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
-    <hyperlink ref="B32" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
+    <hyperlink ref="B24" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
+    <hyperlink ref="B25" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
+    <hyperlink ref="B26" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
+    <hyperlink ref="B27" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
+    <hyperlink ref="B28" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
+    <hyperlink ref="B29" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
+    <hyperlink ref="B30" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
+    <hyperlink ref="B31" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
+    <hyperlink ref="B32" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
+    <hyperlink ref="B33" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
+    <hyperlink ref="C33" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
+    <hyperlink ref="B34" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
+    <hyperlink ref="B35" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
+    <hyperlink ref="B36" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
+    <hyperlink ref="B37" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
+    <hyperlink ref="B10" r:id="rId24" xr:uid="{8D49D6D5-8E15-4CB5-981D-E97625BB83AA}"/>
+    <hyperlink ref="B13" r:id="rId25" location="/myDeliver" xr:uid="{94C6E9C8-B58B-4628-89E1-6F3A9D486A62}"/>
+    <hyperlink ref="B38" r:id="rId26" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
+    <hyperlink ref="B39" r:id="rId27" xr:uid="{11FE390B-A0A3-4E56-8970-8562B25E72D0}"/>
+    <hyperlink ref="B40" r:id="rId28" location="/job/10d65ad2-3f30-47d3-b31f-bd5018c44101/campus_apply/thanks?jobId=10d65ad2-3f30-47d3-b31f-bd5018c44101&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=371468794" xr:uid="{F4A72B46-8AFD-42B3-BD8B-A9D7836AC59E}"/>
+    <hyperlink ref="B11" r:id="rId29" xr:uid="{574EB423-C1F5-441E-810D-613E2CBB1351}"/>
+    <hyperlink ref="B41" r:id="rId30" xr:uid="{81C5CDFC-3B8C-45DD-B1B7-714B6B0E2EB3}"/>
+    <hyperlink ref="B42" r:id="rId31" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
+    <hyperlink ref="B43" r:id="rId32" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
+    <hyperlink ref="B44" r:id="rId33" xr:uid="{BAF8E822-FF82-4291-8FA7-17A524A8A034}"/>
+    <hyperlink ref="B45" r:id="rId34" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
+    <hyperlink ref="B50" r:id="rId35" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
+    <hyperlink ref="B46" r:id="rId36" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
+  <legacyDrawing r:id="rId38"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014A4A7-E7F6-4757-A36D-FA756CA1E18D}">
+  <dimension ref="A1:S38"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.75" style="13" customWidth="1"/>
+    <col min="2" max="2" width="22" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="22" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="13" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="13" customWidth="1"/>
+    <col min="8" max="10" width="9.875" style="13" customWidth="1"/>
+    <col min="11" max="19" width="0" style="13" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.875" style="13" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="19">
+        <v>44197</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44774</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44774</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44136</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44743</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44774</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+    </row>
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+    </row>
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B41D84EF-946D-464D-8657-1531D478C242}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{519C1B83-3986-48EB-B7D3-7332CA3E33F4}"/>
+    <hyperlink ref="A5" r:id="rId3" location="/job/c1d1a8ac-af03-4930-bfae-cc383608b23f" xr:uid="{807AFB76-AD9F-42E6-B2CA-879E2F81BB9B}"/>
+    <hyperlink ref="A6" r:id="rId4" location="/job/81ef6f3e-dcb1-4ece-bd8c-123eaba91890" xr:uid="{384A07C9-1060-44D6-8555-E9EAA83299C8}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{7BBAADA5-84B1-4824-A64C-8EBADCA94317}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{BFE549C5-66F5-497C-BB16-07649808CB35}"/>
+    <hyperlink ref="A10" r:id="rId7" xr:uid="{C9F3CABB-1CD2-4CA2-9D97-DBF8ABA078B8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157ECE25-A234-45E8-91F1-C72464915061}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16AD5A8-8535-4542-BFBF-A5CA9D5B5C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0" xr:uid="{85F218CA-B0A3-4C13-AEC1-BA0B7B5E7CB0}">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{85F218CA-B0A3-4C13-AEC1-BA0B7B5E7CB0}">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -732,6 +732,18 @@
   </si>
   <si>
     <t>省公司、淄川分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925~9:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1261,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -1377,22 +1389,20 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
+      <c r="B7" s="2" t="s">
+        <v>158</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1400,94 +1410,92 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>150</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>97</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1495,69 +1503,75 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="11" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,62 +1579,62 @@
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="12"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>145</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>147</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>30</v>
+      <c r="B22" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>149</v>
+        <v>24</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1628,63 +1642,66 @@
         <v>18</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1692,13 +1709,10 @@
         <v>51</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1706,33 +1720,24 @@
         <v>51</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>153</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1740,13 +1745,22 @@
         <v>61</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1754,33 +1768,36 @@
         <v>61</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F32" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,10 +1805,10 @@
         <v>61</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1799,13 +1816,10 @@
         <v>61</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1813,44 +1827,44 @@
         <v>61</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>146</v>
+        <v>104</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1858,10 +1872,13 @@
         <v>105</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1869,13 +1886,10 @@
         <v>105</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,13 +1897,13 @@
         <v>105</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>142</v>
+        <v>115</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1897,10 +1911,13 @@
         <v>105</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>117</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1908,10 +1925,10 @@
         <v>105</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,84 +1936,98 @@
         <v>105</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B47" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="5" t="s">
+    <row r="50" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
-    <hyperlink ref="B21" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
-    <hyperlink ref="B8" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
-    <hyperlink ref="B18" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
-    <hyperlink ref="B22" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
-    <hyperlink ref="B23" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
-    <hyperlink ref="B24" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
-    <hyperlink ref="B25" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
-    <hyperlink ref="B26" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
-    <hyperlink ref="B27" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
-    <hyperlink ref="B28" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
-    <hyperlink ref="B29" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
-    <hyperlink ref="B30" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
-    <hyperlink ref="B31" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
-    <hyperlink ref="B32" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
-    <hyperlink ref="B33" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
-    <hyperlink ref="C33" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
-    <hyperlink ref="B34" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
-    <hyperlink ref="B35" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
-    <hyperlink ref="B36" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
-    <hyperlink ref="B37" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
-    <hyperlink ref="B10" r:id="rId24" xr:uid="{8D49D6D5-8E15-4CB5-981D-E97625BB83AA}"/>
-    <hyperlink ref="B13" r:id="rId25" location="/myDeliver" xr:uid="{94C6E9C8-B58B-4628-89E1-6F3A9D486A62}"/>
-    <hyperlink ref="B38" r:id="rId26" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
-    <hyperlink ref="B39" r:id="rId27" xr:uid="{11FE390B-A0A3-4E56-8970-8562B25E72D0}"/>
-    <hyperlink ref="B40" r:id="rId28" location="/job/10d65ad2-3f30-47d3-b31f-bd5018c44101/campus_apply/thanks?jobId=10d65ad2-3f30-47d3-b31f-bd5018c44101&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=371468794" xr:uid="{F4A72B46-8AFD-42B3-BD8B-A9D7836AC59E}"/>
-    <hyperlink ref="B11" r:id="rId29" xr:uid="{574EB423-C1F5-441E-810D-613E2CBB1351}"/>
-    <hyperlink ref="B41" r:id="rId30" xr:uid="{81C5CDFC-3B8C-45DD-B1B7-714B6B0E2EB3}"/>
-    <hyperlink ref="B42" r:id="rId31" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
-    <hyperlink ref="B43" r:id="rId32" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
-    <hyperlink ref="B44" r:id="rId33" xr:uid="{BAF8E822-FF82-4291-8FA7-17A524A8A034}"/>
-    <hyperlink ref="B45" r:id="rId34" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
-    <hyperlink ref="B50" r:id="rId35" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
-    <hyperlink ref="B46" r:id="rId36" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
+    <hyperlink ref="B20" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
+    <hyperlink ref="B22" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
+    <hyperlink ref="B9" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
+    <hyperlink ref="B19" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
+    <hyperlink ref="B23" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
+    <hyperlink ref="B24" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
+    <hyperlink ref="B26" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
+    <hyperlink ref="B27" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
+    <hyperlink ref="B28" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
+    <hyperlink ref="B29" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
+    <hyperlink ref="B30" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
+    <hyperlink ref="B31" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
+    <hyperlink ref="B32" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
+    <hyperlink ref="B33" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
+    <hyperlink ref="B34" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
+    <hyperlink ref="C34" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
+    <hyperlink ref="B35" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
+    <hyperlink ref="B36" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
+    <hyperlink ref="B37" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
+    <hyperlink ref="B38" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
+    <hyperlink ref="B11" r:id="rId24" xr:uid="{8D49D6D5-8E15-4CB5-981D-E97625BB83AA}"/>
+    <hyperlink ref="B14" r:id="rId25" location="/myDeliver" xr:uid="{94C6E9C8-B58B-4628-89E1-6F3A9D486A62}"/>
+    <hyperlink ref="B39" r:id="rId26" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
+    <hyperlink ref="B40" r:id="rId27" xr:uid="{11FE390B-A0A3-4E56-8970-8562B25E72D0}"/>
+    <hyperlink ref="B41" r:id="rId28" location="/job/10d65ad2-3f30-47d3-b31f-bd5018c44101/campus_apply/thanks?jobId=10d65ad2-3f30-47d3-b31f-bd5018c44101&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=371468794" xr:uid="{F4A72B46-8AFD-42B3-BD8B-A9D7836AC59E}"/>
+    <hyperlink ref="B12" r:id="rId29" xr:uid="{574EB423-C1F5-441E-810D-613E2CBB1351}"/>
+    <hyperlink ref="B42" r:id="rId30" xr:uid="{81C5CDFC-3B8C-45DD-B1B7-714B6B0E2EB3}"/>
+    <hyperlink ref="B43" r:id="rId31" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
+    <hyperlink ref="B44" r:id="rId32" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
+    <hyperlink ref="B45" r:id="rId33" xr:uid="{BAF8E822-FF82-4291-8FA7-17A524A8A034}"/>
+    <hyperlink ref="B46" r:id="rId34" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
+    <hyperlink ref="B51" r:id="rId35" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
+    <hyperlink ref="B47" r:id="rId36" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
+  <ignoredErrors>
+    <ignoredError sqref="F21" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16AD5A8-8535-4542-BFBF-A5CA9D5B5C6A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09331728-C9A2-42FC-9D0E-08E08A1EE2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="科创板" sheetId="2" r:id="rId2"/>
+    <sheet name="银行" sheetId="3" r:id="rId2"/>
+    <sheet name="科创板" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -42,7 +43,17 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{85F218CA-B0A3-4C13-AEC1-BA0B7B5E7CB0}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{85F218CA-B0A3-4C13-AEC1-BA0B7B5E7CB0}">
       <text>
         <r>
           <rPr>
@@ -73,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -687,63 +698,248 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招商银行</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0919</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0920</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921~13：30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视觉软件工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省公司、淄川分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925~9:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0922</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>淄博分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>省公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐动机器人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件发送</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0924</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927~16:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中汇信息技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0924</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国联通</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络数据建模及AI算法-山东省分公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>云网工程师-淄博市公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商网络</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能运维研发工程师</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行山东分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技储备生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国邮惠万家银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息技术岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国光大银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国民生银行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融科技岗（济南分行）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0921</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0926</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0927~19：00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0925</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国移动信息技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>web开发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券（总部）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信证券（山东）公司</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信期货</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投研交易类-研究所</t>
+  </si>
+  <si>
+    <t>市场开发类-山东分行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0927</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0919</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0920</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921~13：30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>视觉软件工程师</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>山东移动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0921</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>淄博分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>省公司、淄川分公司</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0925~9:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>比亚迪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0922</t>
+    <t>蓝月亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CV算法-广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT技术岗-广州</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据模型研发岗、大数据算法开发岗</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机器视觉AI算法专家岗</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +950,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,8 +1071,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft yahei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -901,6 +1118,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -915,7 +1138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -990,6 +1213,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1273,14 +1548,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="4" bestFit="1" customWidth="1"/>
@@ -1293,7 +1568,7 @@
     <col min="12" max="16384" width="0" style="4" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1591,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>54</v>
@@ -1331,14 +1606,17 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="F3" s="41" t="s">
+        <v>185</v>
+      </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>75</v>
@@ -1353,7 +1631,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>78</v>
@@ -1370,7 +1648,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
         <v>83</v>
@@ -1387,20 +1665,20 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>159</v>
+      <c r="F7" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1408,7 +1686,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1701,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
@@ -1443,10 +1721,11 @@
         <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>92</v>
       </c>
@@ -1463,585 +1742,904 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>99</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="E21" s="3" t="s">
+      <c r="D22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
+        <v>105</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>105</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>105</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>152</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>108</v>
+        <v>163</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>118</v>
+        <v>197</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="2:2" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="49" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="51" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6"/>
+    <row r="58" spans="1:6"/>
+    <row r="59" spans="1:6"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
-    <hyperlink ref="B22" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
-    <hyperlink ref="B9" r:id="rId3" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
-    <hyperlink ref="B19" r:id="rId4" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
-    <hyperlink ref="B13" r:id="rId5" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
-    <hyperlink ref="B23" r:id="rId6" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
-    <hyperlink ref="B25" r:id="rId9" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
-    <hyperlink ref="B26" r:id="rId10" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
-    <hyperlink ref="B27" r:id="rId11" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
-    <hyperlink ref="B28" r:id="rId12" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
-    <hyperlink ref="B29" r:id="rId13" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
-    <hyperlink ref="B30" r:id="rId14" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
-    <hyperlink ref="B31" r:id="rId15" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
-    <hyperlink ref="B32" r:id="rId16" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
-    <hyperlink ref="B33" r:id="rId17" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
-    <hyperlink ref="B34" r:id="rId18" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
-    <hyperlink ref="C34" r:id="rId19" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
-    <hyperlink ref="B35" r:id="rId20" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
-    <hyperlink ref="B36" r:id="rId21" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
-    <hyperlink ref="B37" r:id="rId22" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
-    <hyperlink ref="B38" r:id="rId23" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
-    <hyperlink ref="B11" r:id="rId24" xr:uid="{8D49D6D5-8E15-4CB5-981D-E97625BB83AA}"/>
-    <hyperlink ref="B14" r:id="rId25" location="/myDeliver" xr:uid="{94C6E9C8-B58B-4628-89E1-6F3A9D486A62}"/>
-    <hyperlink ref="B39" r:id="rId26" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
-    <hyperlink ref="B40" r:id="rId27" xr:uid="{11FE390B-A0A3-4E56-8970-8562B25E72D0}"/>
-    <hyperlink ref="B41" r:id="rId28" location="/job/10d65ad2-3f30-47d3-b31f-bd5018c44101/campus_apply/thanks?jobId=10d65ad2-3f30-47d3-b31f-bd5018c44101&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=371468794" xr:uid="{F4A72B46-8AFD-42B3-BD8B-A9D7836AC59E}"/>
-    <hyperlink ref="B12" r:id="rId29" xr:uid="{574EB423-C1F5-441E-810D-613E2CBB1351}"/>
-    <hyperlink ref="B42" r:id="rId30" xr:uid="{81C5CDFC-3B8C-45DD-B1B7-714B6B0E2EB3}"/>
-    <hyperlink ref="B43" r:id="rId31" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
-    <hyperlink ref="B44" r:id="rId32" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
-    <hyperlink ref="B45" r:id="rId33" xr:uid="{BAF8E822-FF82-4291-8FA7-17A524A8A034}"/>
-    <hyperlink ref="B46" r:id="rId34" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
-    <hyperlink ref="B51" r:id="rId35" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
-    <hyperlink ref="B47" r:id="rId36" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
+    <hyperlink ref="B19" r:id="rId1" location="/job/979031b3-f849-4115-a0e1-52d69f552ad6/campus_apply/thanks?jobId=979031b3-f849-4115-a0e1-52d69f552ad6&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=368393913" xr:uid="{D54FC60C-DD03-4FDB-B398-7A33F1242D4E}"/>
+    <hyperlink ref="B9" r:id="rId2" location="/candidateHome/applications" xr:uid="{2BB32F5B-E22C-4AC9-B9A9-7FA1AF665487}"/>
+    <hyperlink ref="B18" r:id="rId3" location="/candidateHome/applications" xr:uid="{B8F0827B-9EC1-499B-9796-5E1A4372F961}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{12F4EDEE-0F4B-44ED-BC49-3DF068CE953F}"/>
+    <hyperlink ref="B20" r:id="rId5" location="/jobs" xr:uid="{2C1D825D-57D8-4294-84D8-3D8497B081D0}"/>
+    <hyperlink ref="B21" r:id="rId6" xr:uid="{80CFF129-EDED-472A-AB16-31A78B091170}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{AE9178F8-EC6C-4126-B4E1-188310DAF611}"/>
+    <hyperlink ref="B22" r:id="rId8" xr:uid="{237EDAE8-F8D5-4B8C-9A17-8A790256D85C}"/>
+    <hyperlink ref="B23" r:id="rId9" xr:uid="{E2C6E815-AB4E-4659-A0C4-4C728BD6F2D1}"/>
+    <hyperlink ref="B24" r:id="rId10" location="/job/12848054-ec2f-420d-9cea-fb71f49a93c3/campus_apply/thanks?jobId=12848054-ec2f-420d-9cea-fb71f49a93c3&amp;isRecommendation=false&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=369922942" xr:uid="{B8AABAE5-098E-45FA-A9AC-5476F0EE96D6}"/>
+    <hyperlink ref="B25" r:id="rId11" location="/candidateHome/applications" xr:uid="{289435A4-FB80-4BAF-8C65-9615ACD7B0F6}"/>
+    <hyperlink ref="B26" r:id="rId12" xr:uid="{71704411-4882-40A4-8505-9D2470D27952}"/>
+    <hyperlink ref="B27" r:id="rId13" xr:uid="{F3B0C44B-FB80-4FAA-842D-CD99C6A24BDB}"/>
+    <hyperlink ref="B28" r:id="rId14" xr:uid="{EEA74DE7-CBFF-4C44-8EF5-BA6D5300F1C8}"/>
+    <hyperlink ref="B29" r:id="rId15" location="/job/a8fadc1d-befa-4d67-9faa-213d4b13caf1/campus_apply/thanks?jobId=a8fadc1d-befa-4d67-9faa-213d4b13caf1&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%AD%A6%E6%B1%89%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSEys1bJ&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370306787" xr:uid="{F2F42B4C-335C-4EF8-9F85-AA4B73DDE278}"/>
+    <hyperlink ref="B30" r:id="rId16" xr:uid="{212CFD30-4CE3-493D-A462-A03EAB2CC928}"/>
+    <hyperlink ref="C30" r:id="rId17" display="https://talent.antgroup.com/campus-position?positionId=1102001401" xr:uid="{523C44F5-13CC-432C-869F-972F4696CF3F}"/>
+    <hyperlink ref="B31" r:id="rId18" location="/candidateHome/applications" xr:uid="{35646BE1-6C4C-43FC-A5BB-FCF075BD1443}"/>
+    <hyperlink ref="B32" r:id="rId19" location="/job/3fcf04bc-3c0d-4422-9fe1-29c935a8be29/campus_apply/thanks?jobId=3fcf04bc-3c0d-4422-9fe1-29c935a8be29&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=348&amp;applyInfo%5BaimWorkCity%5D=%E5%8E%A6%E9%97%A8%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS6ZwW8n&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=370313535" xr:uid="{D672EE5C-7284-485C-BF1B-4B4399414D23}"/>
+    <hyperlink ref="B33" r:id="rId20" xr:uid="{AB2EE3C0-911F-4EF1-87B8-998721D85B9C}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{8D49D6D5-8E15-4CB5-981D-E97625BB83AA}"/>
+    <hyperlink ref="B13" r:id="rId22" location="/myDeliver" xr:uid="{94C6E9C8-B58B-4628-89E1-6F3A9D486A62}"/>
+    <hyperlink ref="B34" r:id="rId23" xr:uid="{11FE390B-A0A3-4E56-8970-8562B25E72D0}"/>
+    <hyperlink ref="B35" r:id="rId24" location="/job/10d65ad2-3f30-47d3-b31f-bd5018c44101/campus_apply/thanks?jobId=10d65ad2-3f30-47d3-b31f-bd5018c44101&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E8%B0%AD%E5%85%B6%E7%86%99&amp;candidateId=371468794" xr:uid="{F4A72B46-8AFD-42B3-BD8B-A9D7836AC59E}"/>
+    <hyperlink ref="B36" r:id="rId25" xr:uid="{81C5CDFC-3B8C-45DD-B1B7-714B6B0E2EB3}"/>
+    <hyperlink ref="B37" r:id="rId26" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
+    <hyperlink ref="B38" r:id="rId27" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
+    <hyperlink ref="B39" r:id="rId28" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
+    <hyperlink ref="B47" r:id="rId29" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
+    <hyperlink ref="B40" r:id="rId30" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
+    <hyperlink ref="B42" r:id="rId31" display="山东联通" xr:uid="{D6107963-BFE6-44E6-8B01-164B780CD806}"/>
+    <hyperlink ref="B43" r:id="rId32" xr:uid="{A06D2138-D282-425A-B447-47735A217291}"/>
+    <hyperlink ref="B44" r:id="rId33" location="/bluemoon/campus/personalcenter/center" xr:uid="{9B2B826A-B05F-4258-8BBE-98DDBAB7B2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId37"/>
-  <ignoredErrors>
-    <ignoredError sqref="F21" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawing r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2631FC06-CCEA-4278-89BC-995ECEEF57B0}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.75" style="29" customWidth="1"/>
+    <col min="2" max="2" width="19.75" style="29" customWidth="1"/>
+    <col min="3" max="3" width="47.75" style="29" customWidth="1"/>
+    <col min="4" max="4" width="42.75" style="29" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="29" customWidth="1"/>
+    <col min="8" max="9" width="9" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="29" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="30"/>
+      <c r="E7" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="43"/>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="30"/>
+    </row>
+    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="30"/>
+    </row>
+    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="30"/>
+    </row>
+    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="30"/>
+    </row>
+    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="30"/>
+    </row>
+    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="30"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{1AF5AD84-5D1E-4E51-9B5C-578378E68A6E}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{D25C1AAB-5A2B-44F9-917D-41C9B1A22CFA}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{AE4857F0-FBD7-4767-AA4D-7A190523E882}"/>
+    <hyperlink ref="B7" r:id="rId4" display="广发" xr:uid="{CFE31B23-3F87-4A7D-A0C5-BCD8FDC5981A}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{BAF8E822-FF82-4291-8FA7-17A524A8A034}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{7F2B4FEE-88EA-4EED-93F0-FDE726E8F7F7}"/>
+    <hyperlink ref="B11" r:id="rId7" location="/main/school/home/post" xr:uid="{84998CE4-BD20-47EB-AC94-D75D03373433}"/>
+    <hyperlink ref="B4" r:id="rId8" xr:uid="{A4040BCD-FBBF-4DCA-A50D-8C6554A8B7CF}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{CB95EFE9-9AFA-434B-A313-C8CF5844E46E}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{F14F45BC-5FD9-4454-96AD-9FC7AA6D60D0}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{485554BF-AC48-4319-BC93-DC9506223F5F}"/>
+    <hyperlink ref="B15" r:id="rId12" location="/app/usercenter" xr:uid="{2B6F8F78-3E3E-4C0B-ACE2-45734815F2AB}"/>
+    <hyperlink ref="B8" r:id="rId13" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
+    <hyperlink ref="B16" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014A4A7-E7F6-4757-A36D-FA756CA1E18D}">
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="17.75" style="13" customWidth="1"/>
     <col min="2" max="2" width="22" style="13" customWidth="1"/>
@@ -2055,7 +2653,7 @@
     <col min="20" max="16384" width="9.875" style="13" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2676,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
         <v>123</v>
       </c>
@@ -2091,7 +2689,7 @@
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -2104,7 +2702,7 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
     </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
         <v>125</v>
       </c>
@@ -2119,7 +2717,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
         <v>127</v>
       </c>
@@ -2134,7 +2732,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="17" t="s">
         <v>129</v>
       </c>
@@ -2145,11 +2743,11 @@
         <v>130</v>
       </c>
       <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>131</v>
       </c>
@@ -2164,20 +2762,20 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26" t="s">
         <v>134</v>
       </c>
@@ -2192,7 +2790,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
         <v>136</v>
       </c>
@@ -2205,7 +2803,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
     </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="19"/>
       <c r="C11" s="20"/>
@@ -2214,82 +2812,82 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
     </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
     </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
     </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
     </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
     </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
     </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
     </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
     </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
     </row>
-    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
     </row>
-    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="16"/>
     </row>
-    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="16"/>
     </row>
-    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="16"/>
     </row>
-    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="16"/>
     </row>
-    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="16"/>
     </row>
-    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:2" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+    <row r="36" ht="20.100000000000001" customHeight="1"/>
+    <row r="37" ht="20.100000000000001" customHeight="1"/>
+    <row r="38" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09331728-C9A2-42FC-9D0E-08E08A1EE2B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82763D9D-28B6-4455-8565-DF5CD6E54831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,33 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">ok_0413:面试站点更新
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{F1DB41D9-951F-445C-B417-AFEAAD6BCE58}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+应该是凉了
 </t>
         </r>
       </text>
@@ -84,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="208">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -421,10 +448,6 @@
   </si>
   <si>
     <t>0916</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测开</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -940,6 +963,34 @@
       </rPr>
       <t>机器视觉AI算法专家岗</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资料已发送0927</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月下旬开始笔试</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评在邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0928</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1551,8 +1602,8 @@
   <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -1563,7 +1614,8 @@
     <col min="4" max="4" width="45.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
     <col min="6" max="7" width="15.125" style="4" customWidth="1"/>
-    <col min="8" max="10" width="9" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18" style="4" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4" customWidth="1"/>
     <col min="11" max="11" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="0" style="4" hidden="1"/>
   </cols>
@@ -1582,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>52</v>
@@ -1599,7 +1651,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>39</v>
@@ -1609,10 +1661,10 @@
     <row r="3" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1624,7 +1676,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>61</v>
@@ -1641,7 +1693,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>80</v>
@@ -1651,32 +1703,40 @@
     <row r="6" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="8" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
@@ -1715,29 +1775,29 @@
         <v>38</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1757,22 +1817,22 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1780,18 +1840,18 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>112</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G14" s="45"/>
     </row>
@@ -1820,10 +1880,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1865,7 +1925,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="12"/>
     </row>
@@ -1880,7 +1940,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1922,7 +1982,7 @@
         <v>47</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -1969,16 +2029,16 @@
         <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2018,7 +2078,7 @@
         <v>6</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2051,71 +2111,71 @@
         <v>74</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="C34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="E34" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>58</v>
@@ -2123,83 +2183,86 @@
     </row>
     <row r="39" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B40" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="C42" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>187</v>
-      </c>
       <c r="C43" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="C44" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>199</v>
+      <c r="E44" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2208,7 +2271,7 @@
     <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
@@ -2313,7 +2376,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2322,7 +2385,7 @@
     <col min="2" max="2" width="19.75" style="29" customWidth="1"/>
     <col min="3" max="3" width="47.75" style="29" customWidth="1"/>
     <col min="4" max="4" width="42.75" style="29" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="20" style="29" customWidth="1"/>
     <col min="6" max="6" width="22.125" style="29" customWidth="1"/>
     <col min="7" max="7" width="27.5" style="29" customWidth="1"/>
     <col min="8" max="9" width="9" style="29" customWidth="1"/>
@@ -2343,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="28" t="s">
         <v>52</v>
@@ -2354,41 +2417,41 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>87</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>88</v>
       </c>
       <c r="E3" s="30"/>
       <c r="F3" s="32" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>171</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>172</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2405,10 +2468,10 @@
         <v>25</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2437,153 +2500,158 @@
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>104</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E8" s="44"/>
       <c r="F8" s="43"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="30" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>120</v>
       </c>
       <c r="D9" s="30"/>
       <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B10" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>166</v>
-      </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
+      <c r="E10" s="36" t="s">
+        <v>204</v>
+      </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="30" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="D11" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>160</v>
+      <c r="E11" s="29" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>176</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>179</v>
-      </c>
       <c r="E14" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>180</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C16" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>189</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="D18" s="42" t="s">
         <v>194</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
@@ -2623,10 +2691,11 @@
     <hyperlink ref="B16" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{29A7B8D6-57F6-4B0F-82BE-1B239B7ED31F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2658,16 +2727,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>52</v>
@@ -2678,7 +2747,7 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B2" s="19">
         <v>44197</v>
@@ -2691,7 +2760,7 @@
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="19">
         <v>44774</v>
@@ -2704,13 +2773,13 @@
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="19">
         <v>44774</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20"/>
@@ -2719,13 +2788,13 @@
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="19">
         <v>44136</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2734,13 +2803,13 @@
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="19">
         <v>44743</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="40"/>
@@ -2749,13 +2818,13 @@
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" s="19">
         <v>44774</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -2764,11 +2833,11 @@
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -2777,13 +2846,13 @@
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9" s="19">
         <v>44105</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -2792,11 +2861,11 @@
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82763D9D-28B6-4455-8565-DF5CD6E54831}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9934693-56E9-49A5-AB57-A0BC0A73EEB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16740" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="206">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -978,19 +978,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>测评在邮箱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0928</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0930</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1603,7 +1595,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -1705,9 +1697,7 @@
       <c r="B6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>207</v>
-      </c>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>90</v>
@@ -1716,10 +1706,10 @@
         <v>81</v>
       </c>
       <c r="G6" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="H6" s="41" t="s">
         <v>205</v>
-      </c>
-      <c r="H6" s="41" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2376,7 +2366,7 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2546,8 +2536,8 @@
         <v>165</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="36" t="s">
-        <v>204</v>
+      <c r="E10" s="38" t="s">
+        <v>90</v>
       </c>
       <c r="F10" s="30"/>
     </row>
@@ -2691,11 +2681,10 @@
     <hyperlink ref="B16" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
-    <hyperlink ref="E10" r:id="rId17" xr:uid="{29A7B8D6-57F6-4B0F-82BE-1B239B7ED31F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -2705,7 +2694,7 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25"/>
@@ -2797,7 +2786,7 @@
         <v>127</v>
       </c>
       <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
     </row>

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9934693-56E9-49A5-AB57-A0BC0A73EEB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56370ABE-C08A-4901-843B-4A0AF464F96B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="0" windowWidth="11130" windowHeight="8040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18600" yWindow="0" windowWidth="11130" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -983,6 +983,33 @@
   </si>
   <si>
     <t>0930</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国开行</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总行-信息技术岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中非发展基金-信息技术岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行</t>
+  </si>
+  <si>
+    <t>1008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>“U+”信息技术岗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1593,8 +1620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2364,9 +2391,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2631FC06-CCEA-4278-89BC-995ECEEF57B0}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2645,10 +2672,29 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="30"/>
+      <c r="A19" s="30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="30"/>
+      <c r="A20" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="30"/>
@@ -2681,10 +2727,11 @@
     <hyperlink ref="B16" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
     <hyperlink ref="B17" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
     <hyperlink ref="B18" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{FC7E16CF-7253-45BF-BF94-09EA62E33251}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56370ABE-C08A-4901-843B-4A0AF464F96B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257448B-9425-4EDB-A40E-FD8FB8332C09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="0" windowWidth="11130" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20460" yWindow="0" windowWidth="11130" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1010,6 +1010,14 @@
   </si>
   <si>
     <t>“U+”信息技术岗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1009</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1620,9 +1628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -1836,7 +1844,9 @@
       <c r="F12" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="11" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -2253,53 +2263,47 @@
     </row>
     <row r="43" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="5" t="s">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="5" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="47" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="48" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="49" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="50" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="50" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
     <row r="51" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="4"/>
@@ -2317,7 +2321,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
     </row>
-    <row r="54" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -2333,14 +2337,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
     </row>
-    <row r="56" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
+    <row r="56" spans="1:6"/>
     <row r="57" spans="1:6"/>
     <row r="58" spans="1:6"/>
     <row r="59" spans="1:6"/>
@@ -2375,25 +2372,24 @@
     <hyperlink ref="B37" r:id="rId26" xr:uid="{08425190-46BB-44DC-9F74-9C9539ADDD0D}"/>
     <hyperlink ref="B38" r:id="rId27" xr:uid="{935F58D9-D822-4005-AF78-C9FFC218F342}"/>
     <hyperlink ref="B39" r:id="rId28" xr:uid="{89228CD8-4B20-42D0-975A-1B684B6286B5}"/>
-    <hyperlink ref="B47" r:id="rId29" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
+    <hyperlink ref="B46" r:id="rId29" xr:uid="{1AE89A41-EAA7-405B-90C8-6C5635FF1EAC}"/>
     <hyperlink ref="B40" r:id="rId30" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
     <hyperlink ref="B42" r:id="rId31" display="山东联通" xr:uid="{D6107963-BFE6-44E6-8B01-164B780CD806}"/>
-    <hyperlink ref="B43" r:id="rId32" xr:uid="{A06D2138-D282-425A-B447-47735A217291}"/>
-    <hyperlink ref="B44" r:id="rId33" location="/bluemoon/campus/personalcenter/center" xr:uid="{9B2B826A-B05F-4258-8BBE-98DDBAB7B2C2}"/>
+    <hyperlink ref="B43" r:id="rId32" location="/bluemoon/campus/personalcenter/center" xr:uid="{9B2B826A-B05F-4258-8BBE-98DDBAB7B2C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2631FC06-CCEA-4278-89BC-995ECEEF57B0}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2586,14 +2582,17 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>174</v>
+      <c r="A12" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2601,10 +2600,10 @@
         <v>172</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2612,13 +2611,10 @@
         <v>172</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
@@ -2626,87 +2622,104 @@
         <v>172</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="30" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
+        <v>188</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="30" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="B19" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C19" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D19" s="42" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="30" t="s">
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="30" t="s">
         <v>206</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B20" s="29" t="s">
         <v>207</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C20" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D20" s="29" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="30" t="s">
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="30" t="s">
         <v>211</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C21" s="29" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="30"/>
-    </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="30"/>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="30"/>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2719,19 +2732,20 @@
     <hyperlink ref="B10" r:id="rId6" xr:uid="{7F2B4FEE-88EA-4EED-93F0-FDE726E8F7F7}"/>
     <hyperlink ref="B11" r:id="rId7" location="/main/school/home/post" xr:uid="{84998CE4-BD20-47EB-AC94-D75D03373433}"/>
     <hyperlink ref="B4" r:id="rId8" xr:uid="{A4040BCD-FBBF-4DCA-A50D-8C6554A8B7CF}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{CB95EFE9-9AFA-434B-A313-C8CF5844E46E}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{F14F45BC-5FD9-4454-96AD-9FC7AA6D60D0}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{485554BF-AC48-4319-BC93-DC9506223F5F}"/>
-    <hyperlink ref="B15" r:id="rId12" location="/app/usercenter" xr:uid="{2B6F8F78-3E3E-4C0B-ACE2-45734815F2AB}"/>
+    <hyperlink ref="B13" r:id="rId9" xr:uid="{CB95EFE9-9AFA-434B-A313-C8CF5844E46E}"/>
+    <hyperlink ref="B14" r:id="rId10" xr:uid="{F14F45BC-5FD9-4454-96AD-9FC7AA6D60D0}"/>
+    <hyperlink ref="B15" r:id="rId11" xr:uid="{485554BF-AC48-4319-BC93-DC9506223F5F}"/>
+    <hyperlink ref="B16" r:id="rId12" location="/app/usercenter" xr:uid="{2B6F8F78-3E3E-4C0B-ACE2-45734815F2AB}"/>
     <hyperlink ref="B8" r:id="rId13" xr:uid="{E3CA26E8-C461-418D-9F45-7CEA9ADA8AF1}"/>
-    <hyperlink ref="B16" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{FC7E16CF-7253-45BF-BF94-09EA62E33251}"/>
+    <hyperlink ref="B17" r:id="rId14" display="中信证券" xr:uid="{E3BCDE20-5FA5-4A19-B524-7AA4D7077F29}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{735406AE-CD48-4E4D-A733-063C2A968B8A}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{D93471F9-DD78-4E63-B17B-9FC5468A96EB}"/>
+    <hyperlink ref="B21" r:id="rId17" xr:uid="{FC7E16CF-7253-45BF-BF94-09EA62E33251}"/>
+    <hyperlink ref="B12" r:id="rId18" xr:uid="{A06D2138-D282-425A-B447-47735A217291}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId19"/>
+  <legacyDrawing r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/投递公司.xlsx
+++ b/投递公司.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B257448B-9425-4EDB-A40E-FD8FB8332C09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6F62FE-3B60-4F03-AC1F-295ECF73B23E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="0" windowWidth="11130" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21390" yWindow="0" windowWidth="11130" windowHeight="8040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="217">
   <si>
     <t>投递时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1018,6 +1018,14 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1628,9 +1636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1"/>
@@ -2279,7 +2287,15 @@
       </c>
     </row>
     <row r="44" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="5"/>
+      <c r="A44" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="45" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="46" spans="1:6" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -2376,10 +2392,11 @@
     <hyperlink ref="B40" r:id="rId30" xr:uid="{023A56ED-FAAF-4B2B-96A5-95487B0A0863}"/>
     <hyperlink ref="B42" r:id="rId31" display="山东联通" xr:uid="{D6107963-BFE6-44E6-8B01-164B780CD806}"/>
     <hyperlink ref="B43" r:id="rId32" location="/bluemoon/campus/personalcenter/center" xr:uid="{9B2B826A-B05F-4258-8BBE-98DDBAB7B2C2}"/>
+    <hyperlink ref="B44" r:id="rId33" xr:uid="{BFEFCCE0-148D-4A11-9E6E-4EA4C5875F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2388,8 +2405,8 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="20.100000000000001" customHeight="1"/>
